--- a/materials/experiments/mfe_final_version/friendlyBlock_select_A.xlsx
+++ b/materials/experiments/mfe_final_version/friendlyBlock_select_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kihossei\Documents\GitHub\memory-for-error-dataset\materials\experiments\arrowFlanker_with_chicago_background_half\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kihossei/Documents/GitHub/memory-for-error-dataset/materials/experiments/mfe_final_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCA77FB-1A23-4CB5-906C-7C2C3A669D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C13F488-115F-FC46-82CB-30A58807E1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{165254C7-1608-5244-B895-8BED51F7D12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,6 @@
     <t>whichSurpriseBlock</t>
   </si>
   <si>
-    <t>instructsurpA1</t>
-  </si>
-  <si>
-    <t>instructsurpA2</t>
-  </si>
-  <si>
     <t>taskTextSource</t>
   </si>
   <si>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>a_halfV_friendlyTable2.csv</t>
+  </si>
+  <si>
+    <t>instructfrA1</t>
+  </si>
+  <si>
+    <t>instructfrA2</t>
   </si>
 </sst>
 </file>
@@ -440,65 +440,65 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="28.375" customWidth="1"/>
-    <col min="5" max="5" width="255.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
